--- a/EXEL_CODIGOLIMPIO23.xlsx
+++ b/EXEL_CODIGOLIMPIO23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b14s205\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baleja\OneDrive\Escritorio\Clase_codigo_limpio\Sales-Tax-Calculator-Clean-Code-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEAC816E-53D8-4939-986F-50D4064C9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC59BB8-B6AA-43B7-8C35-B653DAEA83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6CDB304-FCF7-439A-9AFA-B1F63881A260}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F6CDB304-FCF7-439A-9AFA-B1F63881A260}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Casos Normales</t>
   </si>
@@ -96,9 +93,6 @@
     <t>Barra Chocolate</t>
   </si>
   <si>
-    <t xml:space="preserve">Cigarrillos </t>
-  </si>
-  <si>
     <t>INC(10%)</t>
   </si>
   <si>
@@ -157,6 +151,21 @@
   </si>
   <si>
     <t>149559.2</t>
+  </si>
+  <si>
+    <t>Bolsas</t>
+  </si>
+  <si>
+    <t>Bolsa</t>
+  </si>
+  <si>
+    <t>(Cantidad de bolsas)(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja Cigarrillos </t>
+  </si>
+  <si>
+    <t>Malboro</t>
   </si>
 </sst>
 </file>
@@ -224,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,24 +256,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -284,9 +308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -324,7 +348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -430,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620131E0-F271-4253-A6E7-98EBC06363C4}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,14 +621,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -709,13 +733,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
         <v>18000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3">
         <v>18000</v>
@@ -729,16 +753,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3">
         <v>112000</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="4">
         <v>149559.20000000001</v>
@@ -746,14 +770,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="3">
         <v>14000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3">
         <v>15800</v>
@@ -762,51 +788,56 @@
         <v>15800</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="9">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>150</v>
+      </c>
+      <c r="F12" s="4">
+        <v>150</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="5">
         <v>-11900</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -814,19 +845,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4">
         <v>26000</v>
@@ -834,22 +865,42 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/EXEL_CODIGOLIMPIO23.xlsx
+++ b/EXEL_CODIGOLIMPIO23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baleja\OneDrive\Escritorio\Clase_codigo_limpio\Sales-Tax-Calculator-Clean-Code-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC59BB8-B6AA-43B7-8C35-B653DAEA83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E40500A-7C19-4124-B881-B0C27933AB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F6CDB304-FCF7-439A-9AFA-B1F63881A260}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Casos Normales</t>
   </si>
@@ -111,15 +111,6 @@
     <t>Chicles</t>
   </si>
   <si>
-    <t>Error Producto NO DISPONIBLE</t>
-  </si>
-  <si>
-    <t>Drogas</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Pan</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>ERROR: el iva no puede superar el 19%</t>
   </si>
   <si>
-    <t>ERROR: el producto debe estar en nuestro catálogo.</t>
-  </si>
-  <si>
     <t>IVA&gt;19%(30%)</t>
   </si>
   <si>
@@ -166,6 +154,18 @@
   </si>
   <si>
     <t>Malboro</t>
+  </si>
+  <si>
+    <t>ERROR: el impuesto negativo, no puede ser menor de 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Impuesto Negativo </t>
+  </si>
+  <si>
+    <t>Carrito de Juguete</t>
+  </si>
+  <si>
+    <t>Impuesto &lt; 0%(-10%)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -753,16 +753,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3">
         <v>112000</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4">
         <v>149559.20000000001</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3">
         <v>14000</v>
@@ -790,16 +790,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="9">
         <v>75</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>150</v>
@@ -825,10 +825,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>-10000</v>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4">
         <v>26000</v>
@@ -874,10 +874,10 @@
         <v>20000</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>21</v>
@@ -885,19 +885,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="C18" s="3">
+        <v>20000</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>21</v>
